--- a/D18/4/task4.xlsx
+++ b/D18/4/task4.xlsx
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Максимум:</t>
   </si>
   <si>
     <t>Минимум:</t>
+  </si>
+  <si>
+    <t>Кратны 3м:</t>
   </si>
 </sst>
 </file>
@@ -53,7 +56,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -69,6 +72,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -100,12 +109,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -388,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,158 +464,235 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <f>A1</f>
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <f>A6 +B1</f>
-        <v>9</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" ref="C6:D6" si="0">B6 +C1</f>
-        <v>17</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <f>IF(MOD(A1, 3) = 0, A1,  0)</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" ref="B7:D7" si="0">IF(MOD(B1, 3) = 0, B1,  0)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <f>A6+A2</f>
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
-        <f>B2 + MAX(B6,A7)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <f t="shared" ref="A8:D10" si="1">IF(MOD(A2, 3) = 0, A2,  0)</f>
+        <v>0</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C7" s="2">
-        <f t="shared" ref="C7:D9" si="1">C2 + MAX(C6,B7)</f>
-        <v>18</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <f t="shared" ref="A8:A9" si="2">A7+A3</f>
-        <v>12</v>
-      </c>
-      <c r="B8" s="2">
-        <f t="shared" ref="B8:B9" si="3">B3 + MAX(B7,A8)</f>
-        <v>15</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="B9" s="2">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="1"/>
-        <v>41</v>
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1</v>
+      <c r="A10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <f>A1</f>
-        <v>1</v>
-      </c>
-      <c r="B11" s="2">
-        <f>A11 + B1</f>
-        <v>9</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" ref="C11:D11" si="4">B11 + C1</f>
-        <v>17</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="4"/>
-        <v>21</v>
+      <c r="A11" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <f>A11 + A2</f>
-        <v>11</v>
+        <f>A7</f>
+        <v>0</v>
       </c>
       <c r="B12" s="2">
-        <f>B2  + MIN(A12, B11)</f>
-        <v>10</v>
+        <f>A12 + B7</f>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" ref="C12:D14" si="5">C2  + MIN(B12, C11)</f>
-        <v>11</v>
+        <f t="shared" ref="C12:D12" si="2">B12 + C7</f>
+        <v>0</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <f t="shared" ref="A13:A14" si="6">A12 + A3</f>
-        <v>12</v>
+        <f>A12 + A8</f>
+        <v>0</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" ref="B13:B14" si="7">B3  + MIN(A13, B12)</f>
-        <v>13</v>
+        <f>B8 + MAX(B12,A13)</f>
+        <v>0</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <f t="shared" ref="C13:D15" si="3">C8 + MAX(C12,B13)</f>
+        <v>0</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
+        <f t="shared" ref="A14:A15" si="4">A13 + A9</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" ref="B14:B15" si="5">B9 + MAX(B13,A14)</f>
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <f>A7</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="2">
+        <f>A17 + B7</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:D17" si="6">B17 + C7</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
         <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <f>A17 + A8</f>
+        <v>0</v>
+      </c>
+      <c r="B18" s="2">
+        <f>B8 + MIN(B17,A18)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ref="C18:D20" si="7">C8 + MIN(C17,B18)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
         <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="5"/>
-        <v>22</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <f t="shared" ref="A19:A20" si="8">A18 + A9</f>
+        <v>0</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" ref="B19:B20" si="9">B9 + MIN(B18,A19)</f>
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
